--- a/Fundamentals of artificial intelligence/91ПИц.xlsx
+++ b/Fundamentals of artificial intelligence/91ПИц.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMS\Desktop\91PI\Fundamentals of artificial intelligence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F8A48C-0ABE-410B-BACC-6D27F5875314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2C6A3A-492C-44C0-BF82-97292DC8D042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Л.Р. 1</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Кружилин</t>
   </si>
   <si>
-    <t>Ким</t>
-  </si>
-  <si>
     <t>Фомин</t>
   </si>
   <si>
@@ -99,6 +96,18 @@
   </si>
   <si>
     <t>Каменский</t>
+  </si>
+  <si>
+    <t>Станислав Ким</t>
+  </si>
+  <si>
+    <t>Максим Ким</t>
+  </si>
+  <si>
+    <t>Шалари</t>
+  </si>
+  <si>
+    <t>Оценка:</t>
   </si>
 </sst>
 </file>
@@ -162,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -175,6 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -455,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +486,7 @@
     <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -501,8 +511,11 @@
       <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -535,19 +548,24 @@
         <v>5</v>
       </c>
       <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>10</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
       <c r="D3" s="1">
         <v>10</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
       <c r="F3" s="1">
         <v>10</v>
       </c>
@@ -562,21 +580,28 @@
       <c r="K3" s="2"/>
       <c r="L3" s="1">
         <f>SUM(B3:K3)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>10</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
       <c r="D4" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
       <c r="F4" s="1">
         <v>10</v>
       </c>
@@ -590,72 +615,101 @@
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L16" si="0">SUM(B4:K4)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L4:L11" si="0">SUM(B4:K4)</f>
+        <v>70</v>
+      </c>
+      <c r="M4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>10</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
       <c r="D5" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
       <c r="F5" s="1">
         <v>10</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>10</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
       <c r="D6" s="1">
         <v>10</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
       <c r="F6" s="1">
         <v>10</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>10</v>
+      </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
       <c r="D7" s="1">
         <v>10</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
       <c r="F7" s="1">
         <v>10</v>
       </c>
@@ -670,21 +724,28 @@
       <c r="K7" s="2"/>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>10</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
       <c r="D8" s="1">
         <v>10</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
       <c r="F8" s="1">
         <v>10</v>
       </c>
@@ -699,21 +760,28 @@
       <c r="K8" s="2"/>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>10</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
       <c r="D9" s="1">
         <v>10</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>10</v>
+      </c>
       <c r="F9" s="1">
         <v>10</v>
       </c>
@@ -728,21 +796,28 @@
       <c r="K9" s="2"/>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1">
         <v>10</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
       <c r="D10" s="1">
         <v>10</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
       <c r="F10" s="1">
         <v>10</v>
       </c>
@@ -753,37 +828,51 @@
       <c r="K10" s="2"/>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="M10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
       <c r="D11" s="1">
         <v>10</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
       <c r="F11" s="1">
         <v>10</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>10</v>
+      </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="M11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
@@ -797,27 +886,38 @@
         <v>10</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>10</v>
+      </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L12:L18" si="1">SUM(B12:K12)</f>
+        <v>50</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
       <c r="D13" s="1">
         <v>10</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
       <c r="F13" s="1">
         <v>10</v>
       </c>
@@ -827,22 +927,29 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
       <c r="L13" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="M13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
       <c r="D14" s="1">
         <v>10</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
       <c r="F14" s="1">
         <v>10</v>
       </c>
@@ -852,13 +959,16 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
       <c r="L14" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="M14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
         <v>10</v>
@@ -872,18 +982,25 @@
         <v>10</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <v>10</v>
+      </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1">
+        <v>10</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="M15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
         <v>10</v>
@@ -906,12 +1023,80 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
+      <c r="M16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1">
+        <v>10</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="M17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="M18" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
